--- a/CS/SpreadsheetControl_API_Part02/Documents/Sortsample.xlsx
+++ b/CS/SpreadsheetControl_API_Part02/Documents/Sortsample.xlsx
@@ -1,18 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\winforms-spreadsheetcontrol-api-part-2\CS\SpreadsheetControl_API_Part02\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ACA7C4-D405-4FD5-8654-A504B93350C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14490" windowHeight="12360"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$2:$F$22</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>G20 Countries Data as of 2010</t>
   </si>
@@ -173,8 +184,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,8 +207,43 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,30 +258,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986255168915"/>
+        <fgColor theme="0" tint="-0.34995574816125979"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -244,10 +351,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -493,27 +600,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.71" customWidth="1"/>
-    <col min="2" max="2" width="23.29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.57" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.86" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.73046875" customWidth="1"/>
+    <col min="2" max="2" width="23.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="19.5" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +633,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -543,8 +653,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -559,12 +669,12 @@
       <c r="E3">
         <v>368736</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="12">
         <v>278040</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
@@ -579,12 +689,12 @@
       <c r="E4">
         <v>1138262</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="12">
         <v>774122</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
@@ -599,12 +709,12 @@
       <c r="E5">
         <v>2143035</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="11">
         <v>854740</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
@@ -619,12 +729,12 @@
       <c r="E6">
         <v>1577040</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="11">
         <v>997061</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
@@ -639,12 +749,12 @@
       <c r="E7">
         <v>5949786</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="11">
         <v>956207</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
@@ -659,12 +769,12 @@
       <c r="E8">
         <v>2548315</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="13">
         <v>55150</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
@@ -679,12 +789,12 @@
       <c r="E9">
         <v>3284474</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="13">
         <v>35703</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
@@ -699,12 +809,12 @@
       <c r="E10">
         <v>1710917</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="12">
         <v>328726</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
@@ -719,12 +829,12 @@
       <c r="E11">
         <v>709266</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="12">
         <v>190457</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
@@ -739,12 +849,13 @@
       <c r="E12">
         <v>2041955</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="13">
         <v>30134</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
@@ -759,12 +870,12 @@
       <c r="E13">
         <v>5495379</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="13">
         <v>37780</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
@@ -779,12 +890,12 @@
       <c r="E14">
         <v>1034941</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="14">
         <v>195820</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
@@ -799,12 +910,13 @@
       <c r="E15">
         <v>1524915</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="10">
         <v>1707540</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
@@ -819,12 +931,12 @@
       <c r="E16">
         <v>526811</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="12">
         <v>214969</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B17" t="s">
@@ -839,12 +951,12 @@
       <c r="E17">
         <v>363241</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="12">
         <v>122104</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -859,12 +971,12 @@
       <c r="E18">
         <v>1014890</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="13">
         <v>9926</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
@@ -879,12 +991,12 @@
       <c r="E19">
         <v>1380109</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="13">
         <v>50599</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
@@ -899,12 +1011,12 @@
       <c r="E20">
         <v>731144</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="13">
         <v>77482</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -919,12 +1031,12 @@
       <c r="E21">
         <v>2548315</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="13">
         <v>24291</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B22" t="s">
@@ -939,11 +1051,12 @@
       <c r="E22">
         <v>14419400</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="11">
         <v>962909</v>
       </c>
     </row>
   </sheetData>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>